--- a/Documentacion/Modificaciones/ControlCambios.xlsx
+++ b/Documentacion/Modificaciones/ControlCambios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flia Peñaloza Alejo\Documents\ANGIE\antara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flia Peñaloza Alejo\Documents\ANGIE\antara\GIT\BIDA-master\BIDA\Documentacion\Modificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Area de Conocimiento</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Ruta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control de Cambios </t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Angie Peñaloza</t>
   </si>
   <si>
-    <t>10 de marzo</t>
-  </si>
-  <si>
     <t>Gestión del Alcance</t>
   </si>
   <si>
@@ -93,6 +87,59 @@
   </si>
   <si>
     <t>Gestión de la Calidad</t>
+  </si>
+  <si>
+    <t>Sebastian Rojas</t>
+  </si>
+  <si>
+    <t>Gestión de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Se agregan roles en matriz RACI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de Costos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Documento con actividades de gestión </t>
+  </si>
+  <si>
+    <t>Ajuste de las actividades de acuerdo con la EDT</t>
+  </si>
+  <si>
+    <t>Gestión de los Interesados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Documento con el analisis detallado
+de los interesados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de las comunicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificación de los niveles de aceptación de los 
+medios de comunicación. </t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>Gestión de la Integración</t>
+  </si>
+  <si>
+    <t>Modificación plan de Integración</t>
+  </si>
+  <si>
+    <t>Se actualiza Plan de Gestión de tiempo</t>
+  </si>
+  <si>
+    <t>Adicion de diapositivas</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Jesus Jinete</t>
   </si>
 </sst>
 </file>
@@ -123,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,21 +178,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,15 +382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2943</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>174393</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1627765</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -199,8 +413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943" y="0"/>
-          <a:ext cx="1624822" cy="523875"/>
+          <a:off x="174393" y="628651"/>
+          <a:ext cx="1530582" cy="493490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -509,161 +723,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D8" s="4">
+        <v>42804</v>
+      </c>
+      <c r="E8" s="14">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42804</v>
+      </c>
+      <c r="E9" s="14">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42804</v>
+      </c>
+      <c r="E10" s="14">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E11" s="14">
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E12" s="14">
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E13" s="14">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E14" s="14">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E15" s="14">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42812</v>
+      </c>
+      <c r="E16" s="14">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E17" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E18" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E19" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E20" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E21" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="D22" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E22" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E23" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>42846</v>
+      </c>
+      <c r="E24" s="14">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="18">
+        <v>42840</v>
+      </c>
+      <c r="E25" s="19">
+        <v>42848</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
